--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,25 +800,25 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -817,10 +830,16 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,25 +850,25 @@
         <v>-300</v>
       </c>
       <c r="F10" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G10" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H10" s="3">
         <v>-200</v>
       </c>
       <c r="I10" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J10" s="3">
         <v>-200</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
@@ -861,10 +880,16 @@
         <v>-100</v>
       </c>
       <c r="P10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,20 +906,22 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,43 +1002,49 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,14 +1072,14 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,31 +1134,31 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1114,10 +1167,16 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,31 +1184,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1158,10 +1217,16 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1196,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1220,10 +1287,16 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,25 +1304,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
@@ -1264,10 +1337,16 @@
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,25 +1404,25 @@
         <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
@@ -1352,10 +1437,16 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,25 +1554,25 @@
         <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -1484,10 +1587,16 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,25 +1604,25 @@
         <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
@@ -1528,10 +1637,16 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1724,22 +1863,22 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -1748,10 +1887,16 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,25 +1904,25 @@
         <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
@@ -1792,10 +1937,16 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,25 +2004,25 @@
         <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
@@ -1880,59 +2037,71 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,19 +2138,21 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1994,25 +2167,31 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,16 +2349,16 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2173,42 +2370,48 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2217,22 +2420,28 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2251,11 +2460,11 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2269,22 +2478,28 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2314,13 +2529,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2631,22 +2892,22 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -2663,19 +2924,25 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
@@ -2687,19 +2954,19 @@
         <v>1100</v>
       </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2721,11 +2994,11 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2733,11 +3006,11 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2751,52 +3024,64 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
       <c r="O60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,13 +3124,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -2856,8 +3147,8 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
       </c>
       <c r="N66" s="3">
         <v>1100</v>
       </c>
       <c r="O66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1000</v>
       </c>
       <c r="P76" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,25 +3964,25 @@
         <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
@@ -3608,10 +3997,16 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4100,38 +4559,44 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,28 +4809,34 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -4357,10 +4848,10 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,19 +4909,25 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -4436,24 +4939,30 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,25 +792,28 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -815,14 +822,14 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
@@ -836,10 +843,13 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,16 +857,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-200</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
@@ -865,13 +875,13 @@
         <v>-200</v>
       </c>
       <c r="K10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L10" s="3">
         <v>-300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
@@ -886,10 +896,13 @@
         <v>-100</v>
       </c>
       <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,11 +934,11 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1022,32 +1042,32 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,11 +1101,11 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,37 +1151,38 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1164,19 +1191,22 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,28 +1214,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1214,19 +1244,22 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1291,7 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1269,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
@@ -1293,10 +1327,13 @@
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,43 +1347,46 @@
         <v>-700</v>
       </c>
       <c r="G21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,13 +1435,16 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-700</v>
@@ -1410,43 +1453,46 @@
         <v>-700</v>
       </c>
       <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,13 +1594,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-700</v>
@@ -1560,48 +1612,51 @@
         <v>-700</v>
       </c>
       <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
@@ -1610,43 +1665,46 @@
         <v>-700</v>
       </c>
       <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,7 +1927,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1869,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
@@ -1893,15 +1963,18 @@
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
@@ -1910,43 +1983,46 @@
         <v>-700</v>
       </c>
       <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,13 +2071,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
@@ -2010,98 +2089,104 @@
         <v>-700</v>
       </c>
       <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,22 +2226,23 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2173,25 +2260,28 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,11 +2448,11 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -2361,7 +2460,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2376,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2385,45 +2484,48 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -2432,16 +2534,19 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2466,8 +2571,8 @@
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2484,14 +2589,17 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2610,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2535,13 +2643,16 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,19 +2913,22 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -2811,7 +2937,7 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -2820,10 +2946,10 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -2832,16 +2958,19 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2898,19 +3029,19 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,10 +3076,10 @@
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
@@ -2960,16 +3094,16 @@
         <v>1100</v>
       </c>
       <c r="L58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
@@ -2980,13 +3114,16 @@
       <c r="R58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3000,8 +3137,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -3012,8 +3149,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,46 +3182,49 @@
         <v>1300</v>
       </c>
       <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1600</v>
       </c>
       <c r="J60" s="3">
         <v>1600</v>
       </c>
       <c r="K60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1100</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3141,17 +3287,17 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3342,46 +3500,49 @@
         <v>1300</v>
       </c>
       <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1600</v>
       </c>
       <c r="J66" s="3">
         <v>1600</v>
       </c>
       <c r="K66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1100</v>
       </c>
       <c r="Q66" s="3">
         <v>1100</v>
       </c>
       <c r="R66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1500</v>
       </c>
       <c r="J76" s="3">
         <v>-1500</v>
       </c>
       <c r="K76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-900</v>
       </c>
       <c r="P76" s="3">
         <v>-900</v>
       </c>
       <c r="Q76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,68 +4089,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>
@@ -3970,43 +4165,46 @@
         <v>-700</v>
       </c>
       <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,22 +4554,22 @@
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -4361,22 +4578,25 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4565,38 +4795,41 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>500</v>
       </c>
       <c r="G100" s="3">
         <v>500</v>
       </c>
       <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,22 +5164,25 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -4945,24 +5197,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,28 +799,31 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
@@ -825,14 +832,14 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
@@ -846,10 +853,13 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,19 +867,19 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-200</v>
       </c>
       <c r="J10" s="3">
         <v>-200</v>
@@ -878,13 +888,13 @@
         <v>-200</v>
       </c>
       <c r="L10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M10" s="3">
         <v>-300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-100</v>
       </c>
       <c r="O10" s="3">
         <v>-100</v>
@@ -899,10 +909,13 @@
         <v>-100</v>
       </c>
       <c r="S10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,11 +951,11 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1045,32 +1065,32 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,11 +1127,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,31 +1188,31 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1194,19 +1221,22 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,31 +1244,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1247,19 +1277,22 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1328,7 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1306,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
@@ -1330,10 +1364,13 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F21" s="3">
         <v>-700</v>
@@ -1350,43 +1387,46 @@
         <v>-700</v>
       </c>
       <c r="H21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,16 +1478,19 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-700</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
@@ -1456,43 +1499,46 @@
         <v>-700</v>
       </c>
       <c r="H23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,16 +1646,19 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-700</v>
       </c>
       <c r="F26" s="3">
         <v>-700</v>
@@ -1615,51 +1667,54 @@
         <v>-700</v>
       </c>
       <c r="H26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-700</v>
       </c>
       <c r="F27" s="3">
         <v>-700</v>
@@ -1668,43 +1723,46 @@
         <v>-700</v>
       </c>
       <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1930,7 +2000,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1942,19 +2012,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
@@ -1966,18 +2036,21 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-700</v>
       </c>
       <c r="F33" s="3">
         <v>-700</v>
@@ -1986,43 +2059,46 @@
         <v>-700</v>
       </c>
       <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,16 +2150,19 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-700</v>
       </c>
       <c r="F35" s="3">
         <v>-700</v>
@@ -2092,101 +2171,107 @@
         <v>-700</v>
       </c>
       <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,16 +2323,16 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2263,25 +2350,28 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,23 +2535,26 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -2463,7 +2562,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2478,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2487,13 +2586,16 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,34 +2603,34 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -2537,16 +2639,19 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2574,8 +2679,8 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2592,14 +2697,17 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,7 +2721,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2646,36 +2754,39 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,13 +3051,13 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
@@ -2940,7 +3066,7 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -2949,10 +3075,10 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
@@ -2961,16 +3087,19 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3032,19 +3163,19 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3079,10 +3213,10 @@
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
@@ -3097,16 +3231,16 @@
         <v>1100</v>
       </c>
       <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
@@ -3117,16 +3251,19 @@
       <c r="S58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3140,8 +3277,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -3152,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3170,13 +3307,16 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
         <v>1300</v>
@@ -3185,46 +3325,49 @@
         <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1600</v>
       </c>
       <c r="K60" s="3">
         <v>1600</v>
       </c>
       <c r="L60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1100</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
       </c>
       <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -3290,17 +3436,17 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
@@ -3503,46 +3661,49 @@
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1600</v>
       </c>
       <c r="K66" s="3">
         <v>1600</v>
       </c>
       <c r="L66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1100</v>
       </c>
       <c r="R66" s="3">
         <v>1100</v>
       </c>
       <c r="S66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1500</v>
       </c>
       <c r="K76" s="3">
         <v>-1500</v>
       </c>
       <c r="L76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-900</v>
       </c>
       <c r="Q76" s="3">
         <v>-900</v>
       </c>
       <c r="R76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,74 +4281,80 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-700</v>
       </c>
       <c r="F81" s="3">
         <v>-700</v>
@@ -4168,43 +4363,46 @@
         <v>-700</v>
       </c>
       <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4756,16 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
@@ -4557,22 +4774,22 @@
         <v>-500</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -4581,22 +4798,25 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,28 +5002,31 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4804,32 +5034,35 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,52 +5316,55 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>500</v>
       </c>
       <c r="H100" s="3">
         <v>500</v>
       </c>
       <c r="I100" s="3">
+        <v>500</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,25 +5416,28 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -5200,24 +5452,27 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,16 +809,22 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -826,25 +839,25 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -856,10 +869,16 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="F10" s="3">
         <v>-400</v>
@@ -882,25 +901,25 @@
         <v>-300</v>
       </c>
       <c r="J10" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="K10" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L10" s="3">
         <v>-200</v>
       </c>
       <c r="M10" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N10" s="3">
         <v>-200</v>
       </c>
       <c r="O10" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="P10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q10" s="3">
         <v>-100</v>
@@ -912,10 +931,16 @@
         <v>-100</v>
       </c>
       <c r="T10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -954,14 +981,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,19 +1081,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1068,35 +1107,35 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,14 +1175,14 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1230,21 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
@@ -1200,31 +1253,31 @@
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1233,10 +1286,16 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,10 +1303,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
@@ -1256,31 +1315,31 @@
         <v>-700</v>
       </c>
       <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1289,10 +1348,16 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,43 +1389,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1367,10 +1434,16 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,37 +1451,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
-        <v>-700</v>
-      </c>
       <c r="G21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
@@ -1423,33 +1496,39 @@
         <v>-200</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1481,13 +1560,19 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-600</v>
@@ -1496,31 +1581,31 @@
         <v>-700</v>
       </c>
       <c r="G23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
@@ -1535,10 +1620,16 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1746,19 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-600</v>
@@ -1664,31 +1767,31 @@
         <v>-700</v>
       </c>
       <c r="G26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-700</v>
       </c>
       <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
@@ -1703,15 +1806,21 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
@@ -1720,31 +1829,31 @@
         <v>-700</v>
       </c>
       <c r="G27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H27" s="3">
         <v>-700</v>
       </c>
       <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
@@ -1759,10 +1868,16 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,13 +2133,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2015,22 +2154,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2039,15 +2178,21 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
@@ -2056,31 +2201,31 @@
         <v>-700</v>
       </c>
       <c r="G33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H33" s="3">
         <v>-700</v>
       </c>
       <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
@@ -2095,10 +2240,16 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2304,19 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
@@ -2168,31 +2325,31 @@
         <v>-700</v>
       </c>
       <c r="G35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H35" s="3">
         <v>-700</v>
       </c>
       <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
@@ -2207,71 +2364,83 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,22 +2496,22 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2353,25 +2526,31 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,37 +2729,43 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2580,54 +2777,60 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2636,30 +2839,36 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>100</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
@@ -2682,11 +2891,11 @@
       <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>100</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2700,14 +2909,20 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2724,10 +2939,10 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2757,24 +2972,30 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2788,11 +3009,11 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,55 +3302,61 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,7 +3412,7 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -3166,22 +3427,22 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3198,16 +3459,22 @@
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
@@ -3216,13 +3483,13 @@
         <v>1000</v>
       </c>
       <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1100</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
@@ -3234,19 +3501,19 @@
         <v>1100</v>
       </c>
       <c r="N58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>700</v>
@@ -3254,22 +3521,28 @@
       <c r="T58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3280,11 +3553,11 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -3292,11 +3565,11 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3310,64 +3583,76 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1300</v>
       </c>
       <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1000</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
       </c>
       <c r="S60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,25 +3707,31 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3451,8 +3742,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3460,11 +3751,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
       </c>
       <c r="H66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1000</v>
       </c>
       <c r="R66" s="3">
         <v>1100</v>
       </c>
       <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="E76" s="3">
         <v>-900</v>
       </c>
       <c r="F76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1000</v>
       </c>
       <c r="T76" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4661,86 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
@@ -4360,31 +4749,31 @@
         <v>-700</v>
       </c>
       <c r="G81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H81" s="3">
         <v>-700</v>
       </c>
       <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
@@ -4399,10 +4788,16 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-500</v>
-      </c>
       <c r="F89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,31 +5458,37 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5037,32 +5496,38 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,40 +5792,46 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -5352,10 +5843,10 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,31 +5916,37 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5455,24 +5958,30 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,13 +838,13 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
@@ -845,25 +859,25 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -875,10 +889,16 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,13 +906,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G10" s="3">
         <v>-600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-300</v>
       </c>
       <c r="H10" s="3">
         <v>-400</v>
@@ -907,25 +927,25 @@
         <v>-300</v>
       </c>
       <c r="L10" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M10" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N10" s="3">
         <v>-200</v>
       </c>
       <c r="O10" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P10" s="3">
         <v>-200</v>
       </c>
       <c r="Q10" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="R10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S10" s="3">
         <v>-100</v>
@@ -937,10 +957,16 @@
         <v>-100</v>
       </c>
       <c r="V10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,14 +1015,14 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,14 +1138,14 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1113,35 +1153,35 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,14 +1227,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,25 +1284,27 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
@@ -1259,31 +1313,31 @@
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1292,10 +1346,16 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,16 +1363,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
@@ -1321,31 +1381,31 @@
         <v>-700</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1354,10 +1414,16 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,14 +1457,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1416,22 +1484,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
@@ -1440,10 +1508,16 @@
         <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>-600</v>
-      </c>
       <c r="G21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
@@ -1472,22 +1546,22 @@
         <v>-600</v>
       </c>
       <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
@@ -1502,18 +1576,24 @@
         <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1531,10 +1611,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1566,8 +1646,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1664,7 @@
         <v>-600</v>
       </c>
       <c r="F23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
@@ -1587,31 +1673,31 @@
         <v>-700</v>
       </c>
       <c r="I23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
@@ -1626,10 +1712,16 @@
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1764,7 +1868,7 @@
         <v>-600</v>
       </c>
       <c r="F26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
@@ -1773,31 +1877,31 @@
         <v>-700</v>
       </c>
       <c r="I26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
       </c>
       <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
@@ -1812,10 +1916,16 @@
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1826,7 +1936,7 @@
         <v>-600</v>
       </c>
       <c r="F27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G27" s="3">
         <v>-600</v>
@@ -1835,31 +1945,31 @@
         <v>-700</v>
       </c>
       <c r="I27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
       </c>
       <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
@@ -1874,10 +1984,16 @@
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,14 +2273,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2160,22 +2300,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
@@ -2184,10 +2324,16 @@
         <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2198,7 +2344,7 @@
         <v>-600</v>
       </c>
       <c r="F33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G33" s="3">
         <v>-600</v>
@@ -2207,31 +2353,31 @@
         <v>-700</v>
       </c>
       <c r="I33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
       </c>
       <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
@@ -2246,10 +2392,16 @@
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2322,7 +2480,7 @@
         <v>-600</v>
       </c>
       <c r="F35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G35" s="3">
         <v>-600</v>
@@ -2331,31 +2489,31 @@
         <v>-700</v>
       </c>
       <c r="I35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
       </c>
       <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
@@ -2370,77 +2528,89 @@
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,28 +2670,28 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2532,25 +2706,31 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,43 +2927,49 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2783,60 +2981,66 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2845,36 +3049,42 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>100</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -2897,11 +3107,11 @@
       <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2915,14 +3125,20 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2945,10 +3161,10 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2978,13 +3194,19 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2994,14 +3216,14 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -3015,11 +3237,11 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>500</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,13 +3663,15 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -3418,7 +3680,7 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3433,22 +3695,22 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3465,22 +3727,28 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
       </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
@@ -3489,13 +3757,13 @@
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
@@ -3507,19 +3775,19 @@
         <v>1100</v>
       </c>
       <c r="P58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
@@ -3527,8 +3795,14 @@
       <c r="V58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>700</v>
+      </c>
+      <c r="X58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,19 +3810,19 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3559,11 +3833,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -3571,11 +3845,11 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3589,8 +3863,14 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,61 +3878,67 @@
         <v>1600</v>
       </c>
       <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1000</v>
       </c>
       <c r="T60" s="3">
         <v>1100</v>
       </c>
       <c r="U60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3727,17 +4019,17 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3748,8 +4040,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3757,11 +4049,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1300</v>
       </c>
       <c r="I66" s="3">
         <v>1300</v>
       </c>
       <c r="J66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1000</v>
       </c>
       <c r="T66" s="3">
         <v>1100</v>
       </c>
       <c r="U66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-14400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-12700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4909,14 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4552,61 +4924,67 @@
         <v>-1300</v>
       </c>
       <c r="E76" s="3">
-        <v>-900</v>
+        <v>-1300</v>
       </c>
       <c r="F76" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="G76" s="3">
         <v>-900</v>
       </c>
       <c r="H76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1000</v>
       </c>
       <c r="V76" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4746,7 +5136,7 @@
         <v>-600</v>
       </c>
       <c r="F81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G81" s="3">
         <v>-600</v>
@@ -4755,31 +5145,31 @@
         <v>-700</v>
       </c>
       <c r="I81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
       </c>
       <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
@@ -4794,10 +5184,16 @@
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-400</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-500</v>
-      </c>
       <c r="H89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-500</v>
       </c>
       <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,22 +5918,28 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5490,11 +5950,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5502,32 +5962,38 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,46 +6284,52 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -5849,10 +6341,10 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5934,25 +6438,25 @@
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5964,24 +6468,30 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,13 +832,16 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -844,28 +850,28 @@
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
@@ -874,14 +880,14 @@
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
@@ -895,10 +901,13 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,28 +921,28 @@
         <v>-300</v>
       </c>
       <c r="G10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H10" s="3">
         <v>-600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-200</v>
       </c>
       <c r="O10" s="3">
         <v>-200</v>
@@ -942,13 +951,13 @@
         <v>-200</v>
       </c>
       <c r="Q10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R10" s="3">
         <v>-300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>-100</v>
       </c>
       <c r="T10" s="3">
         <v>-100</v>
@@ -963,10 +972,13 @@
         <v>-100</v>
       </c>
       <c r="X10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1021,11 +1034,11 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1144,11 +1163,11 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1159,32 +1178,32 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,11 +1255,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,55 +1311,56 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1343,19 +1369,22 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1366,43 +1395,43 @@
         <v>-600</v>
       </c>
       <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
       <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1411,19 +1440,22 @@
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1463,11 +1496,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1490,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
@@ -1514,10 +1547,13 @@
         <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1528,13 +1564,13 @@
         <v>-600</v>
       </c>
       <c r="F21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-500</v>
       </c>
       <c r="H21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
@@ -1552,51 +1588,54 @@
         <v>-600</v>
       </c>
       <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1617,7 +1656,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1652,13 +1691,16 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-600</v>
@@ -1670,13 +1712,13 @@
         <v>-600</v>
       </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
       </c>
       <c r="K23" s="3">
         <v>-700</v>
@@ -1685,43 +1727,46 @@
         <v>-700</v>
       </c>
       <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1904,16 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>-600</v>
@@ -1874,13 +1925,13 @@
         <v>-600</v>
       </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
       </c>
       <c r="K26" s="3">
         <v>-700</v>
@@ -1889,48 +1940,51 @@
         <v>-700</v>
       </c>
       <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
@@ -1942,13 +1996,13 @@
         <v>-600</v>
       </c>
       <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
       </c>
       <c r="K27" s="3">
         <v>-700</v>
@@ -1957,43 +2011,46 @@
         <v>-700</v>
       </c>
       <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2279,11 +2348,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2306,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
@@ -2330,15 +2399,18 @@
         <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
@@ -2350,13 +2422,13 @@
         <v>-600</v>
       </c>
       <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
       </c>
       <c r="K33" s="3">
         <v>-700</v>
@@ -2365,43 +2437,46 @@
         <v>-700</v>
       </c>
       <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,13 +2543,16 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
@@ -2486,13 +2564,13 @@
         <v>-600</v>
       </c>
       <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
       </c>
       <c r="K35" s="3">
         <v>-700</v>
@@ -2501,116 +2579,122 @@
         <v>-700</v>
       </c>
       <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2676,25 +2762,25 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2712,25 +2798,28 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2951,20 +3049,20 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
@@ -2972,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2987,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2996,13 +3094,16 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,49 +3111,49 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
@@ -3061,16 +3162,19 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3083,11 +3187,11 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -3113,8 +3217,8 @@
       <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>100</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -3131,14 +3235,17 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3167,7 +3274,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3200,13 +3307,16 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3222,11 +3332,11 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3243,8 +3353,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,28 +3679,28 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
@@ -3584,7 +3709,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -3593,10 +3718,10 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
@@ -3605,16 +3730,19 @@
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
       <c r="X54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3794,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3701,19 +3831,19 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3733,16 +3863,19 @@
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
@@ -3751,7 +3884,7 @@
         <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
@@ -3763,10 +3896,10 @@
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1100</v>
       </c>
       <c r="N58" s="3">
         <v>1100</v>
@@ -3781,16 +3914,16 @@
         <v>1100</v>
       </c>
       <c r="R58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
-      </c>
-      <c r="U58" s="3">
-        <v>700</v>
       </c>
       <c r="V58" s="3">
         <v>700</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3816,16 +3952,16 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3839,8 +3975,8 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -3851,8 +3987,8 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3869,28 +4005,31 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1300</v>
       </c>
       <c r="J60" s="3">
         <v>1300</v>
@@ -3899,46 +4038,49 @@
         <v>1300</v>
       </c>
       <c r="L60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1600</v>
       </c>
       <c r="P60" s="3">
         <v>1600</v>
       </c>
       <c r="Q60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1100</v>
       </c>
       <c r="W60" s="3">
         <v>1100</v>
       </c>
       <c r="X60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4025,8 +4170,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4034,17 +4179,17 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,28 +4431,31 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1700</v>
       </c>
       <c r="F66" s="3">
         <v>1700</v>
       </c>
       <c r="G66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>1300</v>
@@ -4307,46 +4464,49 @@
         <v>1300</v>
       </c>
       <c r="L66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1600</v>
       </c>
       <c r="P66" s="3">
         <v>1600</v>
       </c>
       <c r="Q66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1100</v>
       </c>
       <c r="W66" s="3">
         <v>1100</v>
       </c>
       <c r="X66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,13 +5097,16 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="E76" s="3">
         <v>-1300</v>
@@ -4930,61 +5115,64 @@
         <v>-1300</v>
       </c>
       <c r="G76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1500</v>
       </c>
       <c r="P76" s="3">
         <v>-1500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-900</v>
       </c>
       <c r="V76" s="3">
         <v>-900</v>
       </c>
       <c r="W76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,86 +5239,92 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
@@ -5142,13 +5336,13 @@
         <v>-600</v>
       </c>
       <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
       </c>
       <c r="K81" s="3">
         <v>-700</v>
@@ -5157,43 +5351,46 @@
         <v>-700</v>
       </c>
       <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,19 +5851,19 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-500</v>
@@ -5656,22 +5872,22 @@
         <v>-500</v>
       </c>
       <c r="L89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
@@ -5680,22 +5896,25 @@
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6150,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -5938,11 +6167,11 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5956,8 +6185,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5968,32 +6197,35 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>500</v>
       </c>
       <c r="M100" s="3">
         <v>500</v>
       </c>
       <c r="N100" s="3">
+        <v>500</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,40 +6674,43 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6474,24 +6725,27 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,31 +843,37 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
-        <v>300</v>
-      </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
@@ -874,25 +888,25 @@
         <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -904,10 +918,16 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,22 +935,22 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F10" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="G10" s="3">
         <v>-300</v>
       </c>
       <c r="H10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J10" s="3">
         <v>-600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-300</v>
       </c>
       <c r="K10" s="3">
         <v>-400</v>
@@ -945,25 +965,25 @@
         <v>-300</v>
       </c>
       <c r="O10" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="P10" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q10" s="3">
         <v>-200</v>
       </c>
       <c r="R10" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S10" s="3">
         <v>-200</v>
       </c>
       <c r="T10" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="U10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V10" s="3">
         <v>-100</v>
@@ -975,10 +995,16 @@
         <v>-100</v>
       </c>
       <c r="Y10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1037,14 +1065,14 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,14 +1206,14 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1181,35 +1221,35 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,14 +1304,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,34 +1364,36 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
@@ -1348,31 +1402,31 @@
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
@@ -1381,10 +1435,16 @@
         <v>100</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,25 +1452,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
@@ -1419,31 +1479,31 @@
         <v>-700</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
@@ -1452,10 +1512,16 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1499,14 +1567,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1526,22 +1594,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
@@ -1550,10 +1618,16 @@
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,22 +1635,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
@@ -1591,22 +1665,22 @@
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-400</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
@@ -1621,27 +1695,33 @@
         <v>-200</v>
       </c>
       <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1659,10 +1739,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1694,19 +1774,25 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
@@ -1715,7 +1801,7 @@
         <v>-600</v>
       </c>
       <c r="I23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
@@ -1724,31 +1810,31 @@
         <v>-700</v>
       </c>
       <c r="L23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
@@ -1763,10 +1849,16 @@
         <v>-200</v>
       </c>
       <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,19 +2005,25 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-600</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
@@ -1928,7 +2032,7 @@
         <v>-600</v>
       </c>
       <c r="I26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
@@ -1937,31 +2041,31 @@
         <v>-700</v>
       </c>
       <c r="L26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
       </c>
       <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
@@ -1976,21 +2080,27 @@
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-600</v>
       </c>
       <c r="G27" s="3">
         <v>-600</v>
@@ -1999,7 +2109,7 @@
         <v>-600</v>
       </c>
       <c r="I27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
@@ -2008,31 +2118,31 @@
         <v>-700</v>
       </c>
       <c r="L27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M27" s="3">
         <v>-700</v>
       </c>
       <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
@@ -2047,10 +2157,16 @@
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2351,14 +2491,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2378,22 +2518,22 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
@@ -2402,21 +2542,27 @@
         <v>100</v>
       </c>
       <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-600</v>
       </c>
       <c r="G33" s="3">
         <v>-600</v>
@@ -2425,7 +2571,7 @@
         <v>-600</v>
       </c>
       <c r="I33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-600</v>
@@ -2434,31 +2580,31 @@
         <v>-700</v>
       </c>
       <c r="L33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M33" s="3">
         <v>-700</v>
       </c>
       <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
@@ -2473,10 +2619,16 @@
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,19 +2698,25 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-600</v>
       </c>
       <c r="G35" s="3">
         <v>-600</v>
@@ -2567,7 +2725,7 @@
         <v>-600</v>
       </c>
       <c r="I35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-600</v>
@@ -2576,31 +2734,31 @@
         <v>-700</v>
       </c>
       <c r="L35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M35" s="3">
         <v>-700</v>
       </c>
       <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
@@ -2615,86 +2773,98 @@
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +2919,15 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2765,28 +2939,28 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2801,25 +2975,31 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,40 +3241,40 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3088,69 +3286,75 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3159,22 +3363,28 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3190,14 +3400,14 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>100</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
@@ -3220,11 +3430,11 @@
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>100</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -3238,14 +3448,20 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3277,10 +3493,10 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3310,13 +3526,19 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3335,14 +3557,14 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -3356,11 +3578,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>500</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>500</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,22 +4055,24 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
@@ -3819,7 +4081,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3834,22 +4096,22 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -3866,13 +4128,19 @@
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -3881,16 +4149,16 @@
         <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
       </c>
       <c r="I58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
@@ -3899,13 +4167,13 @@
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>1100</v>
@@ -3917,19 +4185,19 @@
         <v>1100</v>
       </c>
       <c r="S58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>700</v>
       </c>
       <c r="X58" s="3">
         <v>700</v>
@@ -3937,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3955,19 +4229,19 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3978,11 +4252,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3990,11 +4264,11 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4008,79 +4282,91 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E60" s="3">
         <v>1600</v>
       </c>
       <c r="F60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G60" s="3">
         <v>1600</v>
       </c>
       <c r="H60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1300</v>
       </c>
       <c r="L60" s="3">
         <v>1300</v>
       </c>
       <c r="M60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1000</v>
       </c>
       <c r="W60" s="3">
         <v>1100</v>
       </c>
       <c r="X60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4173,17 +4465,17 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -4194,8 +4486,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4203,11 +4495,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1300</v>
       </c>
       <c r="L66" s="3">
         <v>1300</v>
       </c>
       <c r="M66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1000</v>
       </c>
       <c r="W66" s="3">
         <v>1100</v>
       </c>
       <c r="X66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-22600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-21800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-18000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-17300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-14700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-13000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5466,14 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5109,70 +5481,76 @@
         <v>-1500</v>
       </c>
       <c r="E76" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F76" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="G76" s="3">
         <v>-1300</v>
       </c>
       <c r="H76" s="3">
-        <v>-900</v>
+        <v>-1300</v>
       </c>
       <c r="I76" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="J76" s="3">
         <v>-900</v>
       </c>
       <c r="K76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-1000</v>
       </c>
       <c r="Y76" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,95 +5620,107 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-600</v>
       </c>
       <c r="G81" s="3">
         <v>-600</v>
@@ -5339,7 +5729,7 @@
         <v>-600</v>
       </c>
       <c r="I81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-600</v>
@@ -5348,31 +5738,31 @@
         <v>-700</v>
       </c>
       <c r="L81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M81" s="3">
         <v>-700</v>
       </c>
       <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
@@ -5387,10 +5777,16 @@
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>-500</v>
-      </c>
       <c r="K89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-500</v>
       </c>
       <c r="M89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N89" s="3">
         <v>-500</v>
       </c>
       <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5951,20 +6393,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,31 +6607,37 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -6188,11 +6648,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6200,32 +6660,38 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,55 +7021,61 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F100" s="3">
         <v>500</v>
       </c>
       <c r="G100" s="3">
+        <v>400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -6595,10 +7087,10 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,10 +7190,10 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
@@ -6698,25 +7202,25 @@
         <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6728,24 +7232,30 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,22 +853,25 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -873,28 +880,28 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
@@ -903,14 +910,14 @@
         <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
@@ -924,10 +931,13 @@
         <v>100</v>
       </c>
       <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,13 +945,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F10" s="3">
         <v>-500</v>
       </c>
       <c r="G10" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H10" s="3">
         <v>-300</v>
@@ -950,28 +960,28 @@
         <v>-300</v>
       </c>
       <c r="J10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>-200</v>
       </c>
       <c r="R10" s="3">
         <v>-200</v>
@@ -980,13 +990,13 @@
         <v>-200</v>
       </c>
       <c r="T10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U10" s="3">
         <v>-300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-200</v>
-      </c>
-      <c r="V10" s="3">
-        <v>-100</v>
       </c>
       <c r="W10" s="3">
         <v>-100</v>
@@ -1001,10 +1011,13 @@
         <v>-100</v>
       </c>
       <c r="AA10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,13 +1045,14 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1071,10 +1085,10 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,12 +1232,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1227,32 +1247,32 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,12 +1333,12 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,55 +1402,55 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
@@ -1432,19 +1459,22 @@
         <v>200</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
       <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,55 +1482,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
       </c>
       <c r="G18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
       <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
       <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
@@ -1509,19 +1539,22 @@
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1573,11 +1607,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1600,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
@@ -1624,10 +1658,13 @@
         <v>-100</v>
       </c>
       <c r="AA20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,25 +1672,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F21" s="3">
         <v>-700</v>
       </c>
       <c r="G21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-500</v>
       </c>
       <c r="K21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
@@ -1671,40 +1708,43 @@
         <v>-600</v>
       </c>
       <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1745,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,10 +1835,10 @@
         <v>-700</v>
       </c>
       <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
@@ -1807,13 +1850,13 @@
         <v>-600</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
@@ -1822,43 +1865,46 @@
         <v>-700</v>
       </c>
       <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,10 +2075,10 @@
         <v>-700</v>
       </c>
       <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
@@ -2038,13 +2090,13 @@
         <v>-600</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
       </c>
       <c r="N26" s="3">
         <v>-700</v>
@@ -2053,43 +2105,46 @@
         <v>-700</v>
       </c>
       <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,10 +2155,10 @@
         <v>-700</v>
       </c>
       <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-600</v>
       </c>
       <c r="H27" s="3">
         <v>-600</v>
@@ -2115,13 +2170,13 @@
         <v>-600</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-700</v>
       </c>
       <c r="N27" s="3">
         <v>-700</v>
@@ -2130,43 +2185,46 @@
         <v>-700</v>
       </c>
       <c r="P27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2497,11 +2567,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2524,19 +2594,19 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
@@ -2548,10 +2618,13 @@
         <v>100</v>
       </c>
       <c r="AA32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2562,10 +2635,10 @@
         <v>-700</v>
       </c>
       <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-600</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
@@ -2577,13 +2650,13 @@
         <v>-600</v>
       </c>
       <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
       </c>
       <c r="N33" s="3">
         <v>-700</v>
@@ -2592,43 +2665,46 @@
         <v>-700</v>
       </c>
       <c r="P33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,10 +2795,10 @@
         <v>-700</v>
       </c>
       <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-600</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
@@ -2731,13 +2810,13 @@
         <v>-600</v>
       </c>
       <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
       </c>
       <c r="N35" s="3">
         <v>-700</v>
@@ -2746,125 +2825,131 @@
         <v>-700</v>
       </c>
       <c r="P35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2945,25 +3032,25 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2981,25 +3068,28 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3247,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3256,20 +3355,20 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
@@ -3277,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3292,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3301,13 +3400,16 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3324,49 +3426,49 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
@@ -3375,42 +3477,45 @@
         <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -3436,8 +3541,8 @@
       <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>100</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3454,14 +3559,17 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3499,7 +3607,7 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3532,42 +3640,45 @@
         <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -3584,8 +3695,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3931,7 +4057,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
@@ -3940,28 +4066,28 @@
         <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
@@ -3970,7 +4096,7 @@
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
@@ -3979,10 +4105,10 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
@@ -3991,16 +4117,19 @@
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>100</v>
-      </c>
       <c r="AA54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,34 +4187,35 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -4102,19 +4233,19 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -4134,25 +4265,28 @@
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
@@ -4161,7 +4295,7 @@
         <v>1100</v>
       </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
@@ -4173,10 +4307,10 @@
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1100</v>
       </c>
       <c r="Q58" s="3">
         <v>1100</v>
@@ -4191,16 +4325,16 @@
         <v>1100</v>
       </c>
       <c r="U58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
-      </c>
-      <c r="X58" s="3">
-        <v>700</v>
       </c>
       <c r="Y58" s="3">
         <v>700</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4235,17 +4372,17 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -4258,8 +4395,8 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
@@ -4270,8 +4407,8 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4288,37 +4425,40 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1300</v>
       </c>
       <c r="M60" s="3">
         <v>1300</v>
@@ -4327,46 +4467,49 @@
         <v>1300</v>
       </c>
       <c r="O60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1600</v>
       </c>
       <c r="S60" s="3">
         <v>1600</v>
       </c>
       <c r="T60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1100</v>
       </c>
       <c r="Z60" s="3">
         <v>1100</v>
       </c>
       <c r="AA60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4471,8 +4617,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4480,17 +4626,17 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,37 +4905,40 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
         <v>1700</v>
       </c>
       <c r="F66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1700</v>
       </c>
       <c r="I66" s="3">
         <v>1700</v>
       </c>
       <c r="J66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>1300</v>
@@ -4789,46 +4947,49 @@
         <v>1300</v>
       </c>
       <c r="O66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1600</v>
       </c>
       <c r="S66" s="3">
         <v>1600</v>
       </c>
       <c r="T66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1100</v>
       </c>
       <c r="Z66" s="3">
         <v>1100</v>
       </c>
       <c r="AA66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,22 +5655,25 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1300</v>
       </c>
       <c r="H76" s="3">
         <v>-1300</v>
@@ -5496,61 +5682,64 @@
         <v>-1300</v>
       </c>
       <c r="J76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1500</v>
       </c>
       <c r="S76" s="3">
         <v>-1500</v>
       </c>
       <c r="T76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-900</v>
       </c>
       <c r="Y76" s="3">
         <v>-900</v>
       </c>
       <c r="Z76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5720,10 +5915,10 @@
         <v>-700</v>
       </c>
       <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-600</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
@@ -5735,13 +5930,13 @@
         <v>-600</v>
       </c>
       <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
       </c>
       <c r="N81" s="3">
         <v>-700</v>
@@ -5750,43 +5945,46 @@
         <v>-700</v>
       </c>
       <c r="P81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,28 +6502,28 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
       </c>
       <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-500</v>
@@ -6315,22 +6532,22 @@
         <v>-500</v>
       </c>
       <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
@@ -6339,22 +6556,25 @@
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6393,8 +6614,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -6408,8 +6629,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6627,8 +6857,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -6636,11 +6866,11 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="J94" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -6654,8 +6884,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6666,32 +6896,35 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,76 +7282,79 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
-      </c>
-      <c r="O100" s="3">
-        <v>500</v>
       </c>
       <c r="P100" s="3">
         <v>500</v>
       </c>
       <c r="Q100" s="3">
+        <v>500</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7196,34 +7448,34 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -7238,24 +7490,27 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,40 +863,46 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>400</v>
@@ -904,25 +917,25 @@
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
@@ -934,10 +947,16 @@
         <v>100</v>
       </c>
       <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,28 +967,28 @@
         <v>-400</v>
       </c>
       <c r="F10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H10" s="3">
         <v>-500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-300</v>
       </c>
       <c r="J10" s="3">
         <v>-300</v>
       </c>
       <c r="K10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M10" s="3">
         <v>-600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-300</v>
       </c>
       <c r="N10" s="3">
         <v>-400</v>
@@ -984,25 +1003,25 @@
         <v>-300</v>
       </c>
       <c r="R10" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S10" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T10" s="3">
         <v>-200</v>
       </c>
       <c r="U10" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V10" s="3">
         <v>-200</v>
       </c>
       <c r="W10" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="X10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y10" s="3">
         <v>-100</v>
@@ -1014,10 +1033,16 @@
         <v>-100</v>
       </c>
       <c r="AB10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1088,13 +1115,13 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1239,19 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1235,50 +1274,50 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1336,15 +1381,15 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,43 +1444,45 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
@@ -1438,31 +1491,31 @@
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
@@ -1471,10 +1524,16 @@
         <v>100</v>
       </c>
       <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,34 +1541,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-700</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
@@ -1518,31 +1577,31 @@
         <v>-700</v>
       </c>
       <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-400</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z18" s="3">
         <v>-200</v>
@@ -1551,10 +1610,16 @@
         <v>-100</v>
       </c>
       <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1610,14 +1677,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1637,22 +1704,22 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>-100</v>
@@ -1661,10 +1728,16 @@
         <v>-100</v>
       </c>
       <c r="AB20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,31 +1745,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
@@ -1711,22 +1784,22 @@
         <v>-600</v>
       </c>
       <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-400</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
@@ -1741,10 +1814,16 @@
         <v>-200</v>
       </c>
       <c r="AB21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1788,10 +1867,10 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1823,28 +1902,34 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-700</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
       </c>
       <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
@@ -1853,7 +1938,7 @@
         <v>-600</v>
       </c>
       <c r="L23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M23" s="3">
         <v>-600</v>
@@ -1862,31 +1947,31 @@
         <v>-700</v>
       </c>
       <c r="O23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="P23" s="3">
         <v>-700</v>
       </c>
       <c r="Q23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-500</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
@@ -1901,10 +1986,16 @@
         <v>-200</v>
       </c>
       <c r="AB23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,28 +2160,34 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-700</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F26" s="3">
         <v>-700</v>
       </c>
       <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
@@ -2093,7 +2196,7 @@
         <v>-600</v>
       </c>
       <c r="L26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M26" s="3">
         <v>-600</v>
@@ -2102,31 +2205,31 @@
         <v>-700</v>
       </c>
       <c r="O26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="P26" s="3">
         <v>-700</v>
       </c>
       <c r="Q26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
@@ -2141,30 +2244,36 @@
         <v>-200</v>
       </c>
       <c r="AB26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-700</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
         <v>-700</v>
       </c>
       <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
@@ -2173,7 +2282,7 @@
         <v>-600</v>
       </c>
       <c r="L27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M27" s="3">
         <v>-600</v>
@@ -2182,31 +2291,31 @@
         <v>-700</v>
       </c>
       <c r="O27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="P27" s="3">
         <v>-700</v>
       </c>
       <c r="Q27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
@@ -2221,10 +2330,16 @@
         <v>-200</v>
       </c>
       <c r="AB27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2555,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2570,14 +2709,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2597,22 +2736,22 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>100</v>
@@ -2621,30 +2760,36 @@
         <v>100</v>
       </c>
       <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-700</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F33" s="3">
         <v>-700</v>
       </c>
       <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-600</v>
@@ -2653,7 +2798,7 @@
         <v>-600</v>
       </c>
       <c r="L33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M33" s="3">
         <v>-600</v>
@@ -2662,31 +2807,31 @@
         <v>-700</v>
       </c>
       <c r="O33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="P33" s="3">
         <v>-700</v>
       </c>
       <c r="Q33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
@@ -2701,10 +2846,16 @@
         <v>-200</v>
       </c>
       <c r="AB33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,28 +2934,34 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-700</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F35" s="3">
         <v>-700</v>
       </c>
       <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-600</v>
@@ -2813,7 +2970,7 @@
         <v>-600</v>
       </c>
       <c r="L35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M35" s="3">
         <v>-600</v>
@@ -2822,31 +2979,31 @@
         <v>-700</v>
       </c>
       <c r="O35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="P35" s="3">
         <v>-700</v>
       </c>
       <c r="Q35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
@@ -2861,95 +3018,107 @@
         <v>-200</v>
       </c>
       <c r="AB35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,22 +3179,24 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -3035,28 +3208,28 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -3071,25 +3244,31 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3349,40 +3546,40 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3394,78 +3591,84 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -3474,22 +3677,28 @@
         <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>100</v>
       </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3518,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -3544,11 +3753,11 @@
       <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+      <c r="V47" s="3">
+        <v>100</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -3562,19 +3771,25 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3610,10 +3825,10 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3643,13 +3858,19 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3674,8 +3895,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3683,8 +3904,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -3698,11 +3919,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>500</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>500</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>100</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,19 +4461,19 @@
         <v>600</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -4221,7 +4482,7 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -4236,22 +4497,22 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,13 +4544,13 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
@@ -4292,16 +4559,16 @@
         <v>1100</v>
       </c>
       <c r="J58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
       </c>
       <c r="L58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
@@ -4310,13 +4577,13 @@
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1100</v>
       </c>
       <c r="S58" s="3">
         <v>1100</v>
@@ -4328,19 +4595,19 @@
         <v>1100</v>
       </c>
       <c r="V58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>800</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>700</v>
       </c>
       <c r="AA58" s="3">
         <v>700</v>
@@ -4348,13 +4615,19 @@
       <c r="AB58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -4375,20 +4648,20 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -4398,11 +4671,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
@@ -4410,11 +4683,11 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4428,88 +4701,100 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1800</v>
       </c>
       <c r="H60" s="3">
         <v>1600</v>
       </c>
       <c r="I60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J60" s="3">
         <v>1600</v>
       </c>
       <c r="K60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1300</v>
       </c>
       <c r="O60" s="3">
         <v>1300</v>
       </c>
       <c r="P60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1000</v>
       </c>
       <c r="Z60" s="3">
         <v>1100</v>
       </c>
       <c r="AA60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,13 +4873,19 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4620,17 +4911,17 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -4641,8 +4932,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4650,11 +4941,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5217,14 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,79 +5232,85 @@
         <v>2000</v>
       </c>
       <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1300</v>
       </c>
       <c r="O66" s="3">
         <v>1300</v>
       </c>
       <c r="P66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1000</v>
       </c>
       <c r="Z66" s="3">
         <v>1100</v>
       </c>
       <c r="AA66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-21100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-20500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-15300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-13700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="E76" s="3">
         <v>-1500</v>
       </c>
       <c r="F76" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="G76" s="3">
         <v>-1500</v>
       </c>
       <c r="H76" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I76" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="J76" s="3">
         <v>-1300</v>
       </c>
       <c r="K76" s="3">
-        <v>-900</v>
+        <v>-1300</v>
       </c>
       <c r="L76" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="M76" s="3">
         <v>-900</v>
       </c>
       <c r="N76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-900</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-1000</v>
       </c>
       <c r="AB76" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,113 +6195,125 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-700</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F81" s="3">
         <v>-700</v>
       </c>
       <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-600</v>
@@ -5933,7 +6322,7 @@
         <v>-600</v>
       </c>
       <c r="L81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="M81" s="3">
         <v>-600</v>
@@ -5942,31 +6331,31 @@
         <v>-700</v>
       </c>
       <c r="O81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="P81" s="3">
         <v>-700</v>
       </c>
       <c r="Q81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
@@ -5981,10 +6370,16 @@
         <v>-200</v>
       </c>
       <c r="AB81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>-500</v>
-      </c>
       <c r="N89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-500</v>
       </c>
       <c r="P89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6617,26 +7058,26 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6860,23 +7319,23 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -6887,11 +7346,11 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6899,32 +7358,38 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3" t="s">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3" t="s">
+      <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,64 +7758,70 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
       </c>
       <c r="I100" s="3">
         <v>500</v>
       </c>
       <c r="J100" s="3">
+        <v>400</v>
+      </c>
+      <c r="K100" s="3">
+        <v>500</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
@@ -7342,10 +7833,10 @@
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>100</v>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -7451,10 +7954,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
@@ -7463,25 +7966,25 @@
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -7493,24 +7996,30 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,31 +873,34 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>500</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -902,28 +909,28 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
@@ -932,14 +939,14 @@
         <v>200</v>
       </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="Y9" s="3">
-        <v>100</v>
-      </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
@@ -953,10 +960,13 @@
         <v>100</v>
       </c>
       <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,22 +974,22 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-500</v>
       </c>
       <c r="I10" s="3">
         <v>-500</v>
       </c>
       <c r="J10" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="K10" s="3">
         <v>-300</v>
@@ -988,28 +998,28 @@
         <v>-300</v>
       </c>
       <c r="M10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N10" s="3">
         <v>-600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>-200</v>
       </c>
       <c r="U10" s="3">
         <v>-200</v>
@@ -1018,13 +1028,13 @@
         <v>-200</v>
       </c>
       <c r="W10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X10" s="3">
         <v>-300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>-100</v>
       </c>
       <c r="Z10" s="3">
         <v>-100</v>
@@ -1039,10 +1049,13 @@
         <v>-100</v>
       </c>
       <c r="AD10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,13 +1086,14 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1088,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1121,10 +1135,10 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,17 +1262,20 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1280,12 +1300,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1295,32 +1315,32 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1387,12 +1410,12 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,73 +1472,74 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
@@ -1521,19 +1548,22 @@
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
-      <c r="AC17" s="3">
-        <v>100</v>
-      </c>
       <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,64 +1571,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
       <c r="H18" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
       </c>
       <c r="J18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
       <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
@@ -1607,19 +1637,22 @@
         <v>-200</v>
       </c>
       <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1662,11 +1696,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1683,11 +1717,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1710,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>-100</v>
@@ -1734,10 +1768,13 @@
         <v>-100</v>
       </c>
       <c r="AD20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,34 +1782,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-600</v>
       </c>
       <c r="H21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
       </c>
       <c r="J21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
       </c>
       <c r="L21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="M21" s="3">
         <v>-500</v>
       </c>
       <c r="N21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
@@ -1790,40 +1827,43 @@
         <v>-600</v>
       </c>
       <c r="T21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1843,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1873,7 +1913,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1908,19 +1948,22 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-700</v>
       </c>
       <c r="G23" s="3">
         <v>-700</v>
@@ -1929,10 +1972,10 @@
         <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
@@ -1944,13 +1987,13 @@
         <v>-600</v>
       </c>
       <c r="N23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-700</v>
       </c>
       <c r="Q23" s="3">
         <v>-700</v>
@@ -1959,43 +2002,46 @@
         <v>-700</v>
       </c>
       <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,19 +2215,22 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-700</v>
       </c>
       <c r="G26" s="3">
         <v>-700</v>
@@ -2187,10 +2239,10 @@
         <v>-700</v>
       </c>
       <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
@@ -2202,13 +2254,13 @@
         <v>-600</v>
       </c>
       <c r="N26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-700</v>
       </c>
       <c r="Q26" s="3">
         <v>-700</v>
@@ -2217,54 +2269,57 @@
         <v>-700</v>
       </c>
       <c r="S26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-700</v>
       </c>
       <c r="G27" s="3">
         <v>-700</v>
@@ -2273,10 +2328,10 @@
         <v>-700</v>
       </c>
       <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-600</v>
       </c>
       <c r="K27" s="3">
         <v>-600</v>
@@ -2288,13 +2343,13 @@
         <v>-600</v>
       </c>
       <c r="N27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-700</v>
       </c>
       <c r="Q27" s="3">
         <v>-700</v>
@@ -2303,43 +2358,46 @@
         <v>-700</v>
       </c>
       <c r="S27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2694,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2715,11 +2785,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2742,19 +2812,19 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>100</v>
@@ -2766,21 +2836,24 @@
         <v>100</v>
       </c>
       <c r="AD32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-700</v>
       </c>
       <c r="G33" s="3">
         <v>-700</v>
@@ -2789,10 +2862,10 @@
         <v>-700</v>
       </c>
       <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-600</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
@@ -2804,13 +2877,13 @@
         <v>-600</v>
       </c>
       <c r="N33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-700</v>
       </c>
       <c r="Q33" s="3">
         <v>-700</v>
@@ -2819,43 +2892,46 @@
         <v>-700</v>
       </c>
       <c r="S33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,19 +3016,22 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-700</v>
       </c>
       <c r="G35" s="3">
         <v>-700</v>
@@ -2961,10 +3040,10 @@
         <v>-700</v>
       </c>
       <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-600</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
@@ -2976,13 +3055,13 @@
         <v>-600</v>
       </c>
       <c r="N35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-700</v>
       </c>
       <c r="Q35" s="3">
         <v>-700</v>
@@ -2991,134 +3070,140 @@
         <v>-700</v>
       </c>
       <c r="S35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,25 +3267,26 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -3214,25 +3301,25 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -3250,25 +3337,28 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3552,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3561,20 +3660,20 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
@@ -3582,7 +3681,7 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3597,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
@@ -3606,30 +3705,33 @@
         <v>100</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3638,49 +3740,49 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
@@ -3689,16 +3791,19 @@
         <v>100</v>
       </c>
       <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
       <c r="AD46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3733,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -3759,8 +3864,8 @@
       <c r="V47" s="3">
         <v>100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>100</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
@@ -3777,14 +3882,17 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3792,7 +3900,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3831,7 +3939,7 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3864,13 +3972,16 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3901,14 +4012,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -3925,8 +4036,8 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,25 +4422,28 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
@@ -4326,28 +4452,28 @@
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
@@ -4356,7 +4482,7 @@
         <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
@@ -4365,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="3">
         <v>100</v>
@@ -4377,16 +4503,19 @@
         <v>100</v>
       </c>
       <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
-      <c r="AC54" s="3">
-        <v>100</v>
-      </c>
       <c r="AD54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,43 +4579,44 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -4503,19 +4634,19 @@
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4550,19 +4684,19 @@
         <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1100</v>
@@ -4571,7 +4705,7 @@
         <v>1100</v>
       </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
@@ -4583,10 +4717,10 @@
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1100</v>
       </c>
       <c r="T58" s="3">
         <v>1100</v>
@@ -4601,16 +4735,16 @@
         <v>1100</v>
       </c>
       <c r="X58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>800</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>700</v>
       </c>
       <c r="AB58" s="3">
         <v>700</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4630,7 +4767,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -4654,17 +4791,17 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -4677,8 +4814,8 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
@@ -4689,8 +4826,8 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4707,46 +4844,49 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1300</v>
       </c>
       <c r="P60" s="3">
         <v>1300</v>
@@ -4755,54 +4895,57 @@
         <v>1300</v>
       </c>
       <c r="R60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1600</v>
       </c>
       <c r="V60" s="3">
         <v>1600</v>
       </c>
       <c r="W60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>1100</v>
       </c>
       <c r="AC60" s="3">
         <v>1100</v>
       </c>
       <c r="AD60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4879,16 +5022,19 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4917,8 +5063,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4926,17 +5072,17 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4947,8 +5093,8 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,46 +5378,49 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1700</v>
       </c>
       <c r="H66" s="3">
         <v>1700</v>
       </c>
       <c r="I66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1700</v>
       </c>
       <c r="L66" s="3">
         <v>1700</v>
       </c>
       <c r="M66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1300</v>
       </c>
       <c r="P66" s="3">
         <v>1300</v>
@@ -5271,46 +5429,49 @@
         <v>1300</v>
       </c>
       <c r="R66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1600</v>
       </c>
       <c r="V66" s="3">
         <v>1600</v>
       </c>
       <c r="W66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>1100</v>
       </c>
       <c r="AC66" s="3">
         <v>1100</v>
       </c>
       <c r="AD66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-13200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-12700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,31 +6212,34 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E76" s="3">
         <v>-1500</v>
       </c>
       <c r="F76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1300</v>
       </c>
       <c r="K76" s="3">
         <v>-1300</v>
@@ -6062,61 +6248,64 @@
         <v>-1300</v>
       </c>
       <c r="M76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1500</v>
       </c>
       <c r="V76" s="3">
         <v>-1500</v>
       </c>
       <c r="W76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-900</v>
       </c>
       <c r="AB76" s="3">
         <v>-900</v>
       </c>
       <c r="AC76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,110 +6390,116 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-700</v>
       </c>
       <c r="G81" s="3">
         <v>-700</v>
@@ -6313,10 +6508,10 @@
         <v>-700</v>
       </c>
       <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-600</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
@@ -6328,13 +6523,13 @@
         <v>-600</v>
       </c>
       <c r="N81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-700</v>
       </c>
       <c r="Q81" s="3">
         <v>-700</v>
@@ -6343,43 +6538,46 @@
         <v>-700</v>
       </c>
       <c r="S81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6938,34 +7155,34 @@
         <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
       </c>
       <c r="J89" s="3">
         <v>-500</v>
       </c>
       <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-400</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
@@ -6974,22 +7191,22 @@
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
@@ -6998,22 +7215,25 @@
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-200</v>
       </c>
       <c r="AB89" s="3">
         <v>-200</v>
       </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7070,8 +7291,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -7079,8 +7300,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7325,8 +7555,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -7334,11 +7564,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -7352,8 +7582,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -7364,32 +7594,35 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
+        <v>400</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>400</v>
       </c>
       <c r="O100" s="3">
         <v>400</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
-      </c>
-      <c r="R100" s="3">
-        <v>500</v>
       </c>
       <c r="S100" s="3">
         <v>500</v>
       </c>
       <c r="T100" s="3">
+        <v>500</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
         <v>100</v>
       </c>
       <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
-        <v>100</v>
-      </c>
       <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,19 +8185,22 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -7960,34 +8212,34 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -8002,24 +8254,27 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>SFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,34 +880,37 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
       </c>
       <c r="J9" s="3">
         <v>500</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -912,28 +919,28 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
-      </c>
-      <c r="U9" s="3">
-        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>200</v>
@@ -942,14 +949,14 @@
         <v>200</v>
       </c>
       <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>200</v>
       </c>
-      <c r="Z9" s="3">
-        <v>100</v>
-      </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
@@ -963,10 +970,13 @@
         <v>100</v>
       </c>
       <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,25 +984,25 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F10" s="3">
         <v>-700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-500</v>
       </c>
       <c r="J10" s="3">
         <v>-500</v>
       </c>
       <c r="K10" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L10" s="3">
         <v>-300</v>
@@ -1001,28 +1011,28 @@
         <v>-300</v>
       </c>
       <c r="N10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O10" s="3">
         <v>-600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>-200</v>
       </c>
       <c r="V10" s="3">
         <v>-200</v>
@@ -1031,13 +1041,13 @@
         <v>-200</v>
       </c>
       <c r="X10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>-100</v>
       </c>
       <c r="AA10" s="3">
         <v>-100</v>
@@ -1052,10 +1062,13 @@
         <v>-100</v>
       </c>
       <c r="AE10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1105,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1138,10 +1152,10 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,20 +1282,23 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1303,12 +1323,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1318,32 +1338,32 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,12 +1436,12 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,76 +1499,77 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
       <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
@@ -1551,19 +1578,22 @@
         <v>200</v>
       </c>
       <c r="AB17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
-      <c r="AD17" s="3">
-        <v>100</v>
-      </c>
       <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,67 +1601,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
       <c r="I18" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
       </c>
       <c r="K18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
       <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-200</v>
       </c>
       <c r="Z18" s="3">
         <v>-200</v>
@@ -1640,19 +1670,22 @@
         <v>-200</v>
       </c>
       <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,11 +1733,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1720,11 +1754,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1747,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>-100</v>
@@ -1771,10 +1805,13 @@
         <v>-100</v>
       </c>
       <c r="AE20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,37 +1819,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-700</v>
       </c>
       <c r="K21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
       </c>
       <c r="M21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="N21" s="3">
         <v>-500</v>
       </c>
       <c r="O21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-600</v>
@@ -1830,40 +1867,43 @@
         <v>-600</v>
       </c>
       <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-300</v>
       </c>
       <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1886,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1916,7 +1956,7 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1951,22 +1991,25 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-700</v>
@@ -1975,10 +2018,10 @@
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-600</v>
       </c>
       <c r="L23" s="3">
         <v>-600</v>
@@ -1990,13 +2033,13 @@
         <v>-600</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-700</v>
       </c>
       <c r="R23" s="3">
         <v>-700</v>
@@ -2005,43 +2048,46 @@
         <v>-700</v>
       </c>
       <c r="T23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,22 +2267,25 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-700</v>
@@ -2242,10 +2294,10 @@
         <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-600</v>
       </c>
       <c r="L26" s="3">
         <v>-600</v>
@@ -2257,13 +2309,13 @@
         <v>-600</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-700</v>
       </c>
       <c r="R26" s="3">
         <v>-700</v>
@@ -2272,57 +2324,60 @@
         <v>-700</v>
       </c>
       <c r="T26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-700</v>
@@ -2331,10 +2386,10 @@
         <v>-700</v>
       </c>
       <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-600</v>
       </c>
       <c r="L27" s="3">
         <v>-600</v>
@@ -2346,13 +2401,13 @@
         <v>-600</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-700</v>
       </c>
       <c r="R27" s="3">
         <v>-700</v>
@@ -2361,43 +2416,46 @@
         <v>-700</v>
       </c>
       <c r="T27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2767,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2788,11 +2858,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2815,19 +2885,19 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>100</v>
@@ -2839,24 +2909,27 @@
         <v>100</v>
       </c>
       <c r="AE32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-700</v>
@@ -2865,10 +2938,10 @@
         <v>-700</v>
       </c>
       <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
       </c>
       <c r="L33" s="3">
         <v>-600</v>
@@ -2880,13 +2953,13 @@
         <v>-600</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-700</v>
       </c>
       <c r="R33" s="3">
         <v>-700</v>
@@ -2895,43 +2968,46 @@
         <v>-700</v>
       </c>
       <c r="T33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,22 +3095,25 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-700</v>
@@ -3043,10 +3122,10 @@
         <v>-700</v>
       </c>
       <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
       </c>
       <c r="L35" s="3">
         <v>-600</v>
@@ -3058,13 +3137,13 @@
         <v>-600</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-700</v>
       </c>
       <c r="R35" s="3">
         <v>-700</v>
@@ -3073,137 +3152,143 @@
         <v>-700</v>
       </c>
       <c r="T35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,28 +3354,29 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -3304,25 +3391,25 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -3340,25 +3427,28 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3654,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3663,20 +3762,20 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
@@ -3684,7 +3783,7 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3699,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
@@ -3708,33 +3807,36 @@
         <v>100</v>
       </c>
       <c r="AD45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3743,49 +3845,49 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
         <v>100</v>
@@ -3794,16 +3896,19 @@
         <v>100</v>
       </c>
       <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
-      <c r="AD46" s="3">
-        <v>0</v>
-      </c>
       <c r="AE46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3841,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -3867,8 +3972,8 @@
       <c r="W47" s="3">
         <v>100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
+      <c r="X47" s="3">
+        <v>100</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
@@ -3885,14 +3990,17 @@
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD47" s="3">
-        <v>0</v>
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3903,7 +4011,7 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3942,7 +4050,7 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3975,13 +4083,16 @@
         <v>0</v>
       </c>
       <c r="AD48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4015,14 +4126,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -4039,8 +4150,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,28 +4548,31 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
@@ -4455,28 +4581,28 @@
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
@@ -4485,7 +4611,7 @@
         <v>200</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
@@ -4494,10 +4620,10 @@
         <v>100</v>
       </c>
       <c r="Y54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="3">
         <v>100</v>
@@ -4506,16 +4632,19 @@
         <v>100</v>
       </c>
       <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
-      <c r="AD54" s="3">
-        <v>100</v>
-      </c>
       <c r="AE54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,37 +4720,37 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -4637,19 +4768,19 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
@@ -4669,13 +4800,16 @@
       <c r="AE57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
@@ -4687,19 +4821,19 @@
         <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
@@ -4708,7 +4842,7 @@
         <v>1100</v>
       </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
@@ -4720,10 +4854,10 @@
         <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1100</v>
       </c>
       <c r="U58" s="3">
         <v>1100</v>
@@ -4738,16 +4872,16 @@
         <v>1100</v>
       </c>
       <c r="Y58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>800</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>700</v>
       </c>
       <c r="AC58" s="3">
         <v>700</v>
@@ -4758,19 +4892,22 @@
       <c r="AE58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -4794,17 +4931,17 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
@@ -4817,8 +4954,8 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
@@ -4829,8 +4966,8 @@
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4847,49 +4984,52 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1300</v>
       </c>
       <c r="Q60" s="3">
         <v>1300</v>
@@ -4898,46 +5038,49 @@
         <v>1300</v>
       </c>
       <c r="S60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1600</v>
       </c>
       <c r="W60" s="3">
         <v>1600</v>
       </c>
       <c r="X60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>1100</v>
       </c>
       <c r="AD60" s="3">
         <v>1100</v>
       </c>
       <c r="AE60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4948,7 +5091,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5036,8 +5182,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -5066,8 +5212,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -5075,17 +5221,17 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
+      <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -5096,8 +5242,8 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,49 +5536,52 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1700</v>
       </c>
       <c r="I66" s="3">
         <v>1700</v>
       </c>
       <c r="J66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1700</v>
       </c>
       <c r="M66" s="3">
         <v>1700</v>
       </c>
       <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1300</v>
       </c>
       <c r="Q66" s="3">
         <v>1300</v>
@@ -5432,46 +5590,49 @@
         <v>1300</v>
       </c>
       <c r="S66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1600</v>
       </c>
       <c r="W66" s="3">
         <v>1600</v>
       </c>
       <c r="X66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>1100</v>
       </c>
       <c r="AD66" s="3">
         <v>1100</v>
       </c>
       <c r="AE66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-13500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-13200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-13000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-12700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,34 +6398,37 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1500</v>
       </c>
       <c r="F76" s="3">
         <v>-1500</v>
       </c>
       <c r="G76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1300</v>
       </c>
       <c r="L76" s="3">
         <v>-1300</v>
@@ -6251,61 +6437,64 @@
         <v>-1300</v>
       </c>
       <c r="N76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-1500</v>
       </c>
       <c r="W76" s="3">
         <v>-1500</v>
       </c>
       <c r="X76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>-900</v>
       </c>
       <c r="AC76" s="3">
         <v>-900</v>
       </c>
       <c r="AD76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,116 +6582,122 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-700</v>
@@ -6511,10 +6706,10 @@
         <v>-700</v>
       </c>
       <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
       </c>
       <c r="L81" s="3">
         <v>-600</v>
@@ -6526,13 +6721,13 @@
         <v>-600</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-700</v>
       </c>
       <c r="R81" s="3">
         <v>-700</v>
@@ -6541,43 +6736,46 @@
         <v>-700</v>
       </c>
       <c r="T81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,13 +7357,16 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
@@ -7158,34 +7375,34 @@
         <v>-500</v>
       </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-500</v>
       </c>
       <c r="L89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-400</v>
       </c>
       <c r="P89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
@@ -7194,22 +7411,22 @@
         <v>-500</v>
       </c>
       <c r="S89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
@@ -7218,22 +7435,25 @@
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-200</v>
       </c>
       <c r="AC89" s="3">
         <v>-200</v>
       </c>
       <c r="AD89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7294,8 +7515,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -7303,8 +7524,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7558,8 +7788,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -7567,11 +7797,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -7585,8 +7815,8 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7597,32 +7827,35 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
+      <c r="AB94" s="3">
+        <v>0</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>400</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>1000</v>
-      </c>
-      <c r="S100" s="3">
-        <v>500</v>
       </c>
       <c r="T100" s="3">
         <v>500</v>
       </c>
       <c r="U100" s="3">
+        <v>500</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
       <c r="AB100" s="3">
         <v>100</v>
       </c>
       <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AD100" s="3">
-        <v>100</v>
-      </c>
       <c r="AE100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,22 +8437,25 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -8215,34 +8467,34 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -8257,24 +8509,27 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
